--- a/kadai4/4619055_辰川力駆_実験4-2.xlsx
+++ b/kadai4/4619055_辰川力駆_実験4-2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66D6E7BB-9229-5D45-B45E-747CCB4C1643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4BBE79-E0C5-8249-BA21-89AAF7CDDAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="3040" windowWidth="28300" windowHeight="17440" xr2:uid="{4986607D-D7A2-E441-A8BA-6A738D5BCAC6}"/>
   </bookViews>
   <sheets>
     <sheet name="実験2データ" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEBA0B5-42CF-004A-9E05-5E1822E7DF64}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
